--- a/Writing/Tables/Table4.xlsx
+++ b/Writing/Tables/Table4.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Dropbox\CJM\Masterproject\Writing\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\SURFdrive\cjm\masterproject\Writing\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>Overall</t>
   </si>
@@ -146,6 +146,180 @@
       <t xml:space="preserve"> ≥ 1</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 ≤ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; 10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 ≤ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; 20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ≥ 20</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -226,14 +400,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -251,6 +429,1285 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Monotonicity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> check</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$C$6,Sheet2!$C$8,Sheet2!$C$10,Sheet2!$C$12,Sheet2!$C$14,Sheet2!$C$16,Sheet2!$C$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.57729083665338599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60576923076923095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65314240254574396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68721973094170397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72263993316624897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77734375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83950617283950602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$D$6,Sheet2!$D$8,Sheet2!$D$10,Sheet2!$D$12,Sheet2!$D$14,Sheet2!$D$16,Sheet2!$D$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.66050808314087806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66894197952218404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69849246231155804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71165644171779097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76859504132231404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$E$6,Sheet2!$E$8,Sheet2!$E$10,Sheet2!$E$12,Sheet2!$E$14,Sheet2!$E$16,Sheet2!$E$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.41176470588235298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57575757575757602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63829787234042601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67741935483870996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67692307692307696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53846153846153799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$F$6,Sheet2!$F$8,Sheet2!$F$10,Sheet2!$F$12,Sheet2!$F$14,Sheet2!$F$16,Sheet2!$F$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48739495798319299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36305732484076397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.530612244897959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56716417910447803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$G$6,Sheet2!$G$8,Sheet2!$G$10,Sheet2!$G$12,Sheet2!$G$14,Sheet2!$G$16,Sheet2!$G$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.58684210526315805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57709251101321601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69662921348314599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66346153846153799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72413793103448298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$H$6,Sheet2!$H$8,Sheet2!$H$10,Sheet2!$H$12,Sheet2!$H$14,Sheet2!$H$16,Sheet2!$H$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.51376146788990795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77108433734939796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67857142857142905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71165644171779097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81196581196581197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80487804878048796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$I$6,Sheet2!$I$8,Sheet2!$I$10,Sheet2!$I$12,Sheet2!$I$14,Sheet2!$I$16,Sheet2!$I$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.66007194244604295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75235849056603799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80645161290322598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.814393939393939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.870824053452116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88087248322147604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94047619047619002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$J$6,Sheet2!$J$8,Sheet2!$J$10,Sheet2!$J$12,Sheet2!$J$14,Sheet2!$J$16,Sheet2!$J$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.471976401179941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51557093425605505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47826086956521702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52702702702702697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52445652173913004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57339449541284404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69090909090909103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$K$6,Sheet2!$K$8,Sheet2!$K$10,Sheet2!$K$12,Sheet2!$K$14,Sheet2!$K$16,Sheet2!$K$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.56373937677053798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57081545064377703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60248447204968902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63005780346820806</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80952380952380998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="239277984"/>
+        <c:axId val="239279552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="239277984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239279552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="239279552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239277984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,7 +2003,7 @@
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
@@ -575,7 +2032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -640,7 +2097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +2108,7 @@
         <v>4343</v>
       </c>
       <c r="D3" s="2">
-        <f>C3/B3</f>
+        <f t="shared" ref="D3:D11" si="0">C3/B3</f>
         <v>0.29426112880276439</v>
       </c>
       <c r="E3" s="1">
@@ -700,7 +2157,7 @@
         <v>6947</v>
       </c>
       <c r="T3" s="2">
-        <f>S3/B3</f>
+        <f t="shared" ref="T3:T11" si="1">S3/B3</f>
         <v>0.47069584660207331</v>
       </c>
       <c r="U3" s="2">
@@ -708,7 +2165,7 @@
         <v>0.66695468509984634</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -719,7 +2176,7 @@
         <v>758</v>
       </c>
       <c r="D4" s="2">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>0.33201927288655281</v>
       </c>
       <c r="E4" s="1">
@@ -768,15 +2225,15 @@
         <v>1061</v>
       </c>
       <c r="T4" s="2">
-        <f>S4/B4</f>
+        <f t="shared" si="1"/>
         <v>0.46473937801138854</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" ref="U4:U11" si="0">S4/(B4-C4)</f>
+        <f t="shared" ref="U4:U11" si="2">S4/(B4-C4)</f>
         <v>0.69573770491803277</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -787,7 +2244,7 @@
         <v>133</v>
       </c>
       <c r="D5" s="2">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>0.2169657422512235</v>
       </c>
       <c r="E5" s="1">
@@ -836,15 +2293,15 @@
         <v>277</v>
       </c>
       <c r="T5" s="2">
-        <f>S5/B5</f>
+        <f t="shared" si="1"/>
         <v>0.45187601957585644</v>
       </c>
       <c r="U5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57708333333333328</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -855,7 +2312,7 @@
         <v>488</v>
       </c>
       <c r="D6" s="2">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>0.39386602098466506</v>
       </c>
       <c r="E6" s="1">
@@ -904,15 +2361,15 @@
         <v>371</v>
       </c>
       <c r="T6" s="2">
-        <f>S6/B6</f>
+        <f t="shared" si="1"/>
         <v>0.29943502824858759</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.49400798934753659</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -923,7 +2380,7 @@
         <v>907</v>
       </c>
       <c r="D7" s="2">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>0.44482589504659148</v>
       </c>
       <c r="E7" s="1">
@@ -972,15 +2429,15 @@
         <v>699</v>
       </c>
       <c r="T7" s="2">
-        <f>S7/B7</f>
+        <f t="shared" si="1"/>
         <v>0.34281510544384503</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.61749116607773846</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -991,7 +2448,7 @@
         <v>122</v>
       </c>
       <c r="D8" s="2">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>0.15803108808290156</v>
       </c>
       <c r="E8" s="1">
@@ -1040,15 +2497,15 @@
         <v>456</v>
       </c>
       <c r="T8" s="2">
-        <f>S8/B8</f>
+        <f t="shared" si="1"/>
         <v>0.59067357512953367</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.70153846153846156</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,7 +2516,7 @@
         <v>840</v>
       </c>
       <c r="D9" s="2">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>0.20552972840714462</v>
       </c>
       <c r="E9" s="1">
@@ -1108,15 +2565,15 @@
         <v>2641</v>
       </c>
       <c r="T9" s="2">
-        <f>S9/B9</f>
+        <f t="shared" si="1"/>
         <v>0.64619525324198679</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.81336618417000306</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1127,7 +2584,7 @@
         <v>569</v>
       </c>
       <c r="D10" s="2">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>0.26293900184842883</v>
       </c>
       <c r="E10" s="1">
@@ -1176,15 +2633,15 @@
         <v>828</v>
       </c>
       <c r="T10" s="2">
-        <f>S10/B10</f>
+        <f t="shared" si="1"/>
         <v>0.38262476894639558</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.51912225705329151</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1195,7 +2652,7 @@
         <v>526</v>
       </c>
       <c r="D11" s="2">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>0.33674775928297057</v>
       </c>
       <c r="E11" s="1">
@@ -1244,11 +2701,11 @@
         <v>614</v>
       </c>
       <c r="T11" s="2">
-        <f>S11/B11</f>
+        <f t="shared" si="1"/>
         <v>0.39308578745198464</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.5926640926640927</v>
       </c>
     </row>
@@ -1260,22 +2717,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:K21"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
@@ -1306,19 +2762,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4">
-        <v>14759</v>
+        <v>14765</v>
       </c>
       <c r="D2" s="4">
         <v>2283</v>
       </c>
       <c r="E2" s="4">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F2" s="4">
         <v>1239</v>
@@ -1333,685 +2789,762 @@
         <v>4087</v>
       </c>
       <c r="J2" s="4">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="K2" s="4">
-        <v>1562</v>
+        <v>1565</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5">
-        <v>4343</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="7">
+        <v>4340</v>
+      </c>
+      <c r="D3" s="7">
         <v>758</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>133</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>488</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="7">
         <v>907</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>122</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="7">
         <v>840</v>
       </c>
-      <c r="J3" s="5">
-        <v>569</v>
-      </c>
-      <c r="K3" s="5">
-        <v>526</v>
+      <c r="J3" s="7">
+        <v>565</v>
+      </c>
+      <c r="K3" s="7">
+        <v>527</v>
+      </c>
+      <c r="L3">
+        <f>SUM(D3:K3)</f>
+        <v>4340</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
-        <f>C3/C2</f>
-        <v>0.29426112880276439</v>
-      </c>
-      <c r="D4" s="6">
-        <f>D3/D2</f>
+      <c r="C4" s="9">
+        <f t="shared" ref="C4:K4" si="0">C3/C2</f>
+        <v>0.29393836776159837</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
         <v>0.33201927288655281</v>
       </c>
-      <c r="E4" s="6">
-        <f>E3/E2</f>
-        <v>0.2169657422512235</v>
-      </c>
-      <c r="F4" s="6">
-        <f>F3/F2</f>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.21661237785016288</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
         <v>0.39386602098466506</v>
       </c>
-      <c r="G4" s="6">
-        <f>G3/G2</f>
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
         <v>0.44482589504659148</v>
       </c>
-      <c r="H4" s="6">
-        <f>H3/H2</f>
+      <c r="H4" s="9">
+        <f t="shared" si="0"/>
         <v>0.15803108808290156</v>
       </c>
-      <c r="I4" s="6">
-        <f>I3/I2</f>
+      <c r="I4" s="9">
+        <f t="shared" si="0"/>
         <v>0.20552972840714462</v>
       </c>
-      <c r="J4" s="6">
-        <f>J3/J2</f>
-        <v>0.26293900184842883</v>
-      </c>
-      <c r="K4" s="6">
-        <f>K3/K2</f>
-        <v>0.33674775928297057</v>
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.26084949215143122</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.33674121405750801</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.57729083665338599</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.66050808314087806</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.48739495798319299</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.58684210526315805</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.51376146788990795</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.66007194244604295</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.471976401179941</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.56373937677053798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
-        <v>2507</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C7" s="4">
+        <v>2510</v>
+      </c>
+      <c r="D7" s="4">
         <v>433</v>
       </c>
-      <c r="E5" s="5">
-        <v>101</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E7" s="4">
+        <v>102</v>
+      </c>
+      <c r="F7" s="4">
         <v>238</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G7" s="4">
         <v>380</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H7" s="4">
         <v>109</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I7" s="4">
         <v>556</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J7" s="4">
         <v>339</v>
       </c>
-      <c r="K5" s="5">
-        <v>351</v>
+      <c r="K7" s="4">
+        <v>353</v>
+      </c>
+      <c r="L7">
+        <f>SUM(D7:K7)</f>
+        <v>2510</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6">
-        <v>0.578380534503391</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.66050808314087806</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.41584158415841599</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.48739495798319299</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.58684210526315805</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.51376146788990795</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.66007194244604295</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.47787610619469001</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.56410256410256399</v>
+      <c r="C8" s="11">
+        <v>0.60576923076923095</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.66894197952218404</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.36305732484076397</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.57709251101321601</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.75235849056603799</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.51557093425605505</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.57081545064377703</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5">
-        <v>1770</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C9" s="4">
+        <v>1768</v>
+      </c>
+      <c r="D9" s="4">
         <v>293</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E9" s="4">
+        <v>64</v>
+      </c>
+      <c r="F9" s="4">
+        <v>157</v>
+      </c>
+      <c r="G9" s="4">
+        <v>227</v>
+      </c>
+      <c r="H9" s="4">
+        <v>81</v>
+      </c>
+      <c r="I9" s="4">
+        <v>424</v>
+      </c>
+      <c r="J9" s="4">
+        <v>289</v>
+      </c>
+      <c r="K9" s="4">
+        <v>233</v>
+      </c>
+      <c r="L9">
+        <f>SUM(D9:K9)</f>
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.65314240254574396</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.69849246231155804</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.57575757575757602</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.530612244897959</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.77108433734939796</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.47826086956521702</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.60248447204968902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1257</v>
+      </c>
+      <c r="D11" s="4">
+        <v>199</v>
+      </c>
+      <c r="E11" s="4">
+        <v>66</v>
+      </c>
+      <c r="F11" s="4">
+        <v>98</v>
+      </c>
+      <c r="G11" s="4">
+        <v>125</v>
+      </c>
+      <c r="H11" s="4">
+        <v>83</v>
+      </c>
+      <c r="I11" s="4">
+        <v>341</v>
+      </c>
+      <c r="J11" s="4">
+        <v>184</v>
+      </c>
+      <c r="K11" s="4">
+        <v>161</v>
+      </c>
+      <c r="L11">
+        <f>SUM(D11:K11)</f>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.68721973094170397</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.63829787234042601</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.53125</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.69662921348314599</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.67857142857142905</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.814393939393939</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.52702702702702697</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>892</v>
+      </c>
+      <c r="D13" s="4">
+        <v>128</v>
+      </c>
+      <c r="E13" s="4">
+        <v>47</v>
+      </c>
+      <c r="F13" s="4">
+        <v>64</v>
+      </c>
+      <c r="G13" s="4">
+        <v>89</v>
+      </c>
+      <c r="H13" s="4">
+        <v>56</v>
+      </c>
+      <c r="I13" s="4">
+        <v>264</v>
+      </c>
+      <c r="J13" s="4">
+        <v>148</v>
+      </c>
+      <c r="K13" s="4">
+        <v>96</v>
+      </c>
+      <c r="L13">
+        <f>SUM(D13:K13)</f>
+        <v>892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.72263993316624897</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.71165644171779097</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.56716417910447803</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.66346153846153799</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.71165644171779097</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.870824053452116</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.52445652173913004</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.63005780346820806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
+        <f>715+601+474+320+284</f>
+        <v>2394</v>
+      </c>
+      <c r="D15" s="4">
+        <f>114+93+53+43+23</f>
+        <v>326</v>
+      </c>
+      <c r="E15" s="4">
+        <f>47+20+24+23+10</f>
+        <v>124</v>
+      </c>
+      <c r="F15" s="4">
+        <f>38+41+19+18+18</f>
+        <v>134</v>
+      </c>
+      <c r="G15" s="4">
+        <f>63+58+49+22+16</f>
+        <v>208</v>
+      </c>
+      <c r="H15" s="4">
+        <f>50+37+35+17+24</f>
+        <v>163</v>
+      </c>
+      <c r="I15" s="4">
+        <f>241+212+191+135+119</f>
+        <v>898</v>
+      </c>
+      <c r="J15" s="4">
+        <f>110+93+66+44+55</f>
+        <v>368</v>
+      </c>
+      <c r="K15" s="4">
+        <f>52+47+37+18+19</f>
+        <v>173</v>
+      </c>
+      <c r="L15">
+        <f>SUM(D15:K15)</f>
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.77734375</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.76859504132231404</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.67692307692307696</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.72413793103448298</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.81196581196581197</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.88087248322147604</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.57339449541284404</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.80952380952380998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4">
+        <f>259+220+150+156+122+97+80+87+62+47</f>
+        <v>1280</v>
+      </c>
+      <c r="D17" s="4">
+        <f>26+28+10+19+13+8+4+4+5+4</f>
+        <v>121</v>
+      </c>
+      <c r="E17" s="4">
+        <f>18+8+6+8+11+5+4+4+1</f>
         <v>65</v>
       </c>
-      <c r="F7" s="5">
-        <v>157</v>
-      </c>
-      <c r="G7" s="5">
-        <v>227</v>
-      </c>
-      <c r="H7" s="5">
-        <v>81</v>
-      </c>
-      <c r="I7" s="5">
-        <v>424</v>
-      </c>
-      <c r="J7" s="5">
-        <v>290</v>
-      </c>
-      <c r="K7" s="5">
-        <v>233</v>
+      <c r="F17" s="4">
+        <f>12+13+6+10+5+2+4+1+2</f>
+        <v>55</v>
+      </c>
+      <c r="G17" s="4">
+        <f>21+19+12+11+6+2+4+7+3+2</f>
+        <v>87</v>
+      </c>
+      <c r="H17" s="4">
+        <f>21+12+15+16+14+11+8+11+6+3</f>
+        <v>117</v>
+      </c>
+      <c r="I17" s="4">
+        <f>106+100+69+66+50+59+44+42+33+27</f>
+        <v>596</v>
+      </c>
+      <c r="J17" s="4">
+        <f>50+34+29+24+22+10+15+15+12+7</f>
+        <v>218</v>
+      </c>
+      <c r="K17" s="4">
+        <f>5+6+3+2+1+1+1+2</f>
+        <v>21</v>
+      </c>
+      <c r="L17">
+        <f>SUM(D17:K17)</f>
+        <v>1280</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
-        <v>0.60621468926553701</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.66894197952218404</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.507692307692308</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.36305732484076397</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.57709251101321601</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.75235849056603799</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.51724137931034497</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.57081545064377703</v>
+      <c r="C18" s="11">
+        <v>0.83950617283950602</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.80487804878048796</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.94047619047619002</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.69090909090909103</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4">
+        <f>47+36+32+24+23+21+15+13+11+13+8+11+6+6+4+5+6+6+6+4+5+3+3+1+1+1+1+2+1+1+3+1+2+1+1</f>
+        <v>324</v>
+      </c>
+      <c r="D19" s="4">
+        <f>4+3+1+5+2+3+1+2+1+1+1+1</f>
+        <v>25</v>
+      </c>
+      <c r="E19" s="4">
+        <f>3+2+1+2+1+1+1+1+1</f>
+        <v>13</v>
+      </c>
+      <c r="F19" s="4">
+        <f>2+1+1+1</f>
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <f>2+1+5+1+1+2+1+1+1+1</f>
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="H19" s="4">
+        <f>9+5+4+1+1+2+2+1+2+1+2+1+1+1+1+1+1+1+1+1+1+1</f>
+        <v>41</v>
+      </c>
+      <c r="I19" s="4">
+        <f>24+16+17+12+12+14+9+6+4+8+3+4+3+4+3+1+4+4+6+2+5+1+1+1+1+1+1+1</f>
+        <v>168</v>
+      </c>
+      <c r="J19" s="4">
+        <f>3+9+9+2+3+2+3+2+4+2+3+2+1+2+1+1+1+1+1+1+1+1</f>
+        <v>55</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f>SUM(D19:K19)</f>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" ref="C20:K20" si="1">C22/C2</f>
+        <v>0.47077548256010837</v>
+      </c>
+      <c r="D20" s="8">
+        <f>D22/D2</f>
+        <v>0.46473937801138854</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.45114006514657978</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.29943502824858759</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.34281510544384503</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.59067357512953367</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.64619525324198679</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.38365650969529086</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.39297124600638977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" ref="C21:K21" si="2">C22/(C2-C3)</f>
+        <v>0.66676258992805759</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.69573770491803277</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.57588357588357586</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.49400798934753659</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.61749116607773846</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.70153846153846156</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.81336618417000306</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.51905059337913806</v>
+      </c>
+      <c r="K21" s="8">
+        <f>K22/(K2-K3)</f>
+        <v>0.59248554913294793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D9" s="5">
-        <v>199</v>
-      </c>
-      <c r="E9" s="5">
-        <v>65</v>
-      </c>
-      <c r="F9" s="5">
-        <v>98</v>
-      </c>
-      <c r="G9" s="5">
-        <v>125</v>
-      </c>
-      <c r="H9" s="5">
-        <v>83</v>
-      </c>
-      <c r="I9" s="5">
-        <v>341</v>
-      </c>
-      <c r="J9" s="5">
-        <v>178</v>
-      </c>
-      <c r="K9" s="5">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.65280000000000005</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.69849246231155804</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.56923076923076898</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.530612244897959</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.77108433734939796</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.80645161290322598</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0.47191011235955099</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0.60248447204968902</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5">
-        <v>893</v>
-      </c>
-      <c r="D11" s="5">
-        <v>128</v>
-      </c>
-      <c r="E11" s="5">
-        <v>47</v>
-      </c>
-      <c r="F11" s="5">
-        <v>64</v>
-      </c>
-      <c r="G11" s="5">
-        <v>89</v>
-      </c>
-      <c r="H11" s="5">
-        <v>56</v>
-      </c>
-      <c r="I11" s="5">
-        <v>264</v>
-      </c>
-      <c r="J11" s="5">
-        <v>149</v>
-      </c>
-      <c r="K11" s="5">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.68645016797312397</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.63829787234042601</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.53125</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.69662921348314599</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.67857142857142905</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.814393939393939</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0.52348993288590595</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5">
-        <v>714</v>
-      </c>
-      <c r="D13" s="5">
-        <v>114</v>
-      </c>
-      <c r="E13" s="5">
-        <v>47</v>
-      </c>
-      <c r="F13" s="5">
-        <v>38</v>
-      </c>
-      <c r="G13" s="5">
-        <v>63</v>
-      </c>
-      <c r="H13" s="5">
-        <v>50</v>
-      </c>
-      <c r="I13" s="5">
-        <v>241</v>
-      </c>
-      <c r="J13" s="5">
-        <v>109</v>
-      </c>
-      <c r="K13" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.71008403361344496</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.78070175438596501</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.63829787234042601</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.60526315789473695</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.829875518672199</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0.53211009174311896</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0.59615384615384603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5">
-        <v>258</v>
-      </c>
-      <c r="D15" s="5">
-        <v>26</v>
-      </c>
-      <c r="E15" s="5">
-        <v>17</v>
-      </c>
-      <c r="F15" s="5">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5">
-        <v>21</v>
-      </c>
-      <c r="H15" s="5">
-        <v>21</v>
-      </c>
-      <c r="I15" s="5">
-        <v>106</v>
-      </c>
-      <c r="J15" s="5">
-        <v>50</v>
-      </c>
-      <c r="K15" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.73643410852713198</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.76923076923076905</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.70588235294117696</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.71428571428571397</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0.88679245283018904</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5">
-        <v>47</v>
-      </c>
-      <c r="D17" s="5">
-        <v>4</v>
-      </c>
-      <c r="E17" s="5">
-        <v>3</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5">
-        <v>2</v>
-      </c>
-      <c r="H17" s="5">
-        <v>9</v>
-      </c>
-      <c r="I17" s="5">
-        <v>24</v>
-      </c>
-      <c r="J17" s="5">
-        <v>3</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.80851063829787195</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5">
-        <v>6947</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C22" s="4">
+        <v>6951</v>
+      </c>
+      <c r="D22" s="4">
         <v>1061</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E22" s="4">
         <v>277</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F22" s="4">
         <v>371</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G22" s="4">
         <v>699</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H22" s="4">
         <v>456</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I22" s="4">
         <v>2641</v>
       </c>
-      <c r="J19" s="5">
-        <v>828</v>
-      </c>
-      <c r="K19" s="5">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <f>C19/C2</f>
-        <v>0.47069584660207331</v>
-      </c>
-      <c r="D20" s="7">
-        <f>D19/D2</f>
-        <v>0.46473937801138854</v>
-      </c>
-      <c r="E20" s="7">
-        <f>E19/E2</f>
-        <v>0.45187601957585644</v>
-      </c>
-      <c r="F20" s="7">
-        <f>F19/F2</f>
-        <v>0.29943502824858759</v>
-      </c>
-      <c r="G20" s="7">
-        <f>G19/G2</f>
-        <v>0.34281510544384503</v>
-      </c>
-      <c r="H20" s="7">
-        <f>H19/H2</f>
-        <v>0.59067357512953367</v>
-      </c>
-      <c r="I20" s="7">
-        <f>I19/I2</f>
-        <v>0.64619525324198679</v>
-      </c>
-      <c r="J20" s="7">
-        <f>J19/J2</f>
-        <v>0.38262476894639558</v>
-      </c>
-      <c r="K20" s="7">
-        <f>K19/K2</f>
-        <v>0.39308578745198464</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="6">
-        <f>C19/(C2-C3)</f>
-        <v>0.66695468509984634</v>
-      </c>
-      <c r="D21" s="6">
-        <f>D19/(D2-D3)</f>
-        <v>0.69573770491803277</v>
-      </c>
-      <c r="E21" s="6">
-        <f>E19/(E2-E3)</f>
-        <v>0.57708333333333328</v>
-      </c>
-      <c r="F21" s="6">
-        <f>F19/(F2-F3)</f>
-        <v>0.49400798934753659</v>
-      </c>
-      <c r="G21" s="6">
-        <f>G19/(G2-G3)</f>
-        <v>0.61749116607773846</v>
-      </c>
-      <c r="H21" s="6">
-        <f>H19/(H2-H3)</f>
-        <v>0.70153846153846156</v>
-      </c>
-      <c r="I21" s="6">
-        <f>I19/(I2-I3)</f>
-        <v>0.81336618417000306</v>
-      </c>
-      <c r="J21" s="6">
-        <f>J19/(J2-J3)</f>
-        <v>0.51912225705329151</v>
-      </c>
-      <c r="K21" s="6">
-        <f>K19/(K2-K3)</f>
-        <v>0.5926640926640927</v>
+      <c r="J22" s="4">
+        <v>831</v>
+      </c>
+      <c r="K22" s="4">
+        <v>615</v>
+      </c>
+      <c r="L22">
+        <f>SUM(D22:K22)</f>
+        <v>6951</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>